--- a/prj_integracao_NataliAbrao_Dispatcher/Data/Config.xlsx
+++ b/prj_integracao_NataliAbrao_Dispatcher/Data/Config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natalia.abrao\Documents\UiPath\prj_integracao_NataliAbrao_Dispatcher\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natalia.abrao\Documents\UiPath\prj_integracao_NataliAbrao\prj_integracao_NataliAbrao_Dispatcher\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161627F3-73D9-499E-A920-7F37B75A7352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322DF085-5B7C-477A-A97D-05023B53F545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
